--- a/5_Portfolio/02_요구사항 명세서_WYC_v0.3.xlsx
+++ b/5_Portfolio/02_요구사항 명세서_WYC_v0.3.xlsx
@@ -752,7 +752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="11">
+  <x:fonts count="12">
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
@@ -794,11 +794,6 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="G마켓 산스 TTF Medium"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -821,11 +816,66 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="G마켓 산스 TTF Medium"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="G마켓 산스 TTF Medium"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="G마켓 산스 TTF Medium"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="4">
     <x:fill>
@@ -878,20 +928,6 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
@@ -902,6 +938,20 @@
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -919,16 +969,16 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left>
+      <x:left style="thin">
         <x:color auto="1"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="thin">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -961,151 +1011,138 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1124,93 +1161,106 @@
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -1820,1140 +1870,1141 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:D83"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="E81" activeCellId="0" sqref="E81:E81"/>
+    <x:sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="E1" activeCellId="0" sqref="E1:E1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
-    <x:col min="2" max="2" width="25.125" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="36.81640625" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="27.61328125" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="40.5" style="2" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="179.85546875" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="16384" width="12.5703125" style="3"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="60" customHeight="1">
-      <x:c r="A1" s="33" t="s">
+      <x:c r="A1" s="9" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="B1" s="34"/>
-      <x:c r="C1" s="34"/>
-      <x:c r="D1" s="34"/>
-    </x:row>
-    <x:row r="2" spans="1:4" ht="14.550000000000001">
-      <x:c r="A2" s="14" t="s">
+      <x:c r="B1" s="10"/>
+      <x:c r="C1" s="10"/>
+      <x:c r="D1" s="10"/>
+    </x:row>
+    <x:row r="2" spans="1:4" ht="17.800000000000001">
+      <x:c r="A2" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B2" s="14" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C2" s="14" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D2" s="14" t="s">
+      <x:c r="D2" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4" s="1" customFormat="1" ht="33.600000000000001" customHeight="1">
-      <x:c r="A3" s="31" t="s">
+    <x:row r="3" spans="1:4" s="3" customFormat="1" ht="33.600000000000001" customHeight="1">
+      <x:c r="A3" s="11" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="B3" s="10" t="s">
+      <x:c r="B3" s="12" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C3" s="10" t="s">
+      <x:c r="C3" s="12" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D3" s="15" t="s">
+      <x:c r="D3" s="13" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A4" s="31" t="s">
+    <x:row r="4" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A4" s="11" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="B4" s="10" t="s">
+      <x:c r="B4" s="12" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C4" s="10" t="s">
+      <x:c r="C4" s="12" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D4" s="11" t="s">
+      <x:c r="D4" s="14" t="s">
         <x:v>149</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A5" s="31" t="s">
+    <x:row r="5" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A5" s="11" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="B5" s="10" t="s">
+      <x:c r="B5" s="12" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C5" s="16" t="s">
+      <x:c r="C5" s="15" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D5" s="17" t="s">
+      <x:c r="D5" s="16" t="s">
         <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A6" s="31" t="s">
+    <x:row r="6" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A6" s="11" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="B6" s="10" t="s">
+      <x:c r="B6" s="12" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C6" s="18" t="s">
+      <x:c r="C6" s="17" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="D6" s="19" t="s">
+      <x:c r="D6" s="18" t="s">
         <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A7" s="31" t="s">
+    <x:row r="7" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A7" s="11" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="B7" s="10" t="s">
+      <x:c r="B7" s="12" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C7" s="16" t="s">
+      <x:c r="C7" s="15" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="D7" s="17" t="s">
+      <x:c r="D7" s="16" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A8" s="31" t="s">
+    <x:row r="8" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A8" s="11" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="B8" s="10" t="s">
+      <x:c r="B8" s="12" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C8" s="16" t="s">
+      <x:c r="C8" s="15" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="D8" s="17" t="s">
+      <x:c r="D8" s="16" t="s">
         <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A9" s="31" t="s">
+    <x:row r="9" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A9" s="11" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="B9" s="20" t="s">
+      <x:c r="B9" s="19" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="20" t="s">
+      <x:c r="C9" s="19" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="D9" s="21" t="s">
+      <x:c r="D9" s="20" t="s">
         <x:v>141</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A10" s="31" t="s">
+    <x:row r="10" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A10" s="11" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
+      <x:c r="B10" s="12" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="C10" s="18" t="s">
+      <x:c r="C10" s="17" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="D10" s="19" t="s">
+      <x:c r="D10" s="18" t="s">
         <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A11" s="31" t="s">
+    <x:row r="11" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A11" s="11" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B11" s="10" t="s">
+      <x:c r="B11" s="12" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="C11" s="18" t="s">
+      <x:c r="C11" s="17" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="D11" s="19" t="s">
+      <x:c r="D11" s="18" t="s">
         <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A12" s="31" t="s">
+    <x:row r="12" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A12" s="11" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="B12" s="10" t="s">
+      <x:c r="B12" s="12" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="C12" s="18" t="s">
+      <x:c r="C12" s="17" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D12" s="19" t="s">
+      <x:c r="D12" s="18" t="s">
         <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A13" s="31" t="s">
+      <x:c r="A13" s="11" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="B13" s="10" t="s">
+      <x:c r="B13" s="12" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="C13" s="18" t="s">
+      <x:c r="C13" s="17" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D13" s="19" t="s">
+      <x:c r="D13" s="18" t="s">
         <x:v>140</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A14" s="31" t="s">
+    <x:row r="14" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A14" s="11" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="B14" s="10" t="s">
+      <x:c r="B14" s="12" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="C14" s="18" t="s">
+      <x:c r="C14" s="17" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D14" s="19" t="s">
+      <x:c r="D14" s="18" t="s">
         <x:v>143</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A15" s="31" t="s">
+    <x:row r="15" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A15" s="11" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="B15" s="16" t="s">
+      <x:c r="B15" s="15" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="C15" s="16" t="s">
+      <x:c r="C15" s="15" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="D15" s="19" t="s">
+      <x:c r="D15" s="18" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A16" s="31" t="s">
+    <x:row r="16" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A16" s="11" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="B16" s="16" t="s">
+      <x:c r="B16" s="15" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="C16" s="16" t="s">
+      <x:c r="C16" s="15" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="D16" s="19" t="s">
+      <x:c r="D16" s="18" t="s">
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A17" s="31" t="s">
+    <x:row r="17" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A17" s="11" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="B17" s="16" t="s">
+      <x:c r="B17" s="15" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="C17" s="16" t="s">
+      <x:c r="C17" s="15" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="D17" s="19" t="s">
+      <x:c r="D17" s="18" t="s">
         <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A18" s="31" t="s">
+      <x:c r="A18" s="11" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B18" s="10" t="s">
+      <x:c r="B18" s="12" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="C18" s="10" t="s">
+      <x:c r="C18" s="12" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="D18" s="22" t="s">
+      <x:c r="D18" s="21" t="s">
         <x:v>173</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A19" s="31" t="s">
+    <x:row r="19" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A19" s="11" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="B19" s="10" t="s">
+      <x:c r="B19" s="12" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="C19" s="16" t="s">
+      <x:c r="C19" s="15" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D19" s="17" t="s">
+      <x:c r="D19" s="16" t="s">
         <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A20" s="31" t="s">
+      <x:c r="A20" s="11" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B20" s="10" t="s">
+      <x:c r="B20" s="12" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="C20" s="18" t="s">
+      <x:c r="C20" s="17" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D20" s="19" t="s">
+      <x:c r="D20" s="18" t="s">
         <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A21" s="31" t="s">
+      <x:c r="A21" s="11" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B21" s="10" t="s">
+      <x:c r="B21" s="12" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="C21" s="18" t="s">
+      <x:c r="C21" s="17" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D21" s="19" t="s">
+      <x:c r="D21" s="18" t="s">
         <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A22" s="31" t="s">
+      <x:c r="A22" s="11" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="B22" s="10" t="s">
+      <x:c r="B22" s="12" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="C22" s="18" t="s">
+      <x:c r="C22" s="17" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D22" s="19" t="s">
+      <x:c r="D22" s="18" t="s">
         <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A23" s="31" t="s">
+      <x:c r="A23" s="11" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="B23" s="10" t="s">
+      <x:c r="B23" s="12" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="C23" s="16" t="s">
+      <x:c r="C23" s="15" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D23" s="17" t="s">
+      <x:c r="D23" s="16" t="s">
         <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A24" s="31" t="s">
+      <x:c r="A24" s="11" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="B24" s="10" t="s">
+      <x:c r="B24" s="12" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="C24" s="16" t="s">
+      <x:c r="C24" s="15" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="D24" s="19" t="s">
+      <x:c r="D24" s="18" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A25" s="31" t="s">
+      <x:c r="A25" s="11" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="B25" s="10" t="s">
+      <x:c r="B25" s="12" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="C25" s="16" t="s">
+      <x:c r="C25" s="15" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="D25" s="19" t="s">
+      <x:c r="D25" s="18" t="s">
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A26" s="31" t="s">
+    <x:row r="26" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A26" s="11" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B26" s="10" t="s">
+      <x:c r="B26" s="12" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="C26" s="16" t="s">
+      <x:c r="C26" s="15" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="D26" s="19" t="s">
+      <x:c r="D26" s="18" t="s">
         <x:v>170</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A27" s="31" t="s">
+    <x:row r="27" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A27" s="11" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="B27" s="10" t="s">
+      <x:c r="B27" s="12" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C27" s="18" t="s">
+      <x:c r="C27" s="17" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D27" s="19" t="s">
+      <x:c r="D27" s="18" t="s">
         <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A28" s="31" t="s">
+    <x:row r="28" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A28" s="11" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="B28" s="10" t="s">
+      <x:c r="B28" s="12" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C28" s="18" t="s">
+      <x:c r="C28" s="17" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D28" s="19" t="s">
+      <x:c r="D28" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A29" s="31" t="s">
+    <x:row r="29" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A29" s="11" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B29" s="10" t="s">
+      <x:c r="B29" s="12" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C29" s="18" t="s">
+      <x:c r="C29" s="17" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="D29" s="19" t="s">
+      <x:c r="D29" s="18" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A30" s="31" t="s">
+    <x:row r="30" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A30" s="11" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B30" s="10" t="s">
+      <x:c r="B30" s="12" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C30" s="18" t="s">
+      <x:c r="C30" s="17" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D30" s="12" t="s">
+      <x:c r="D30" s="22" t="s">
         <x:v>240</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A31" s="31" t="s">
+    <x:row r="31" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A31" s="11" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B31" s="10" t="s">
+      <x:c r="B31" s="12" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C31" s="18" t="s">
+      <x:c r="C31" s="17" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="D31" s="19" t="s">
+      <x:c r="D31" s="18" t="s">
         <x:v>213</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A32" s="31" t="s">
+    <x:row r="32" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A32" s="11" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="B32" s="18" t="s">
+      <x:c r="B32" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C32" s="18" t="s">
+      <x:c r="C32" s="17" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D32" s="19" t="s">
+      <x:c r="D32" s="18" t="s">
         <x:v>161</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A33" s="31" t="s">
+    <x:row r="33" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A33" s="11" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="B33" s="18" t="s">
+      <x:c r="B33" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C33" s="18" t="s">
+      <x:c r="C33" s="17" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="D33" s="19" t="s">
+      <x:c r="D33" s="18" t="s">
         <x:v>157</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A34" s="31" t="s">
+    <x:row r="34" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A34" s="11" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="B34" s="18" t="s">
+      <x:c r="B34" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C34" s="18" t="s">
+      <x:c r="C34" s="17" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="D34" s="19" t="s">
+      <x:c r="D34" s="18" t="s">
         <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A35" s="31" t="s">
+    <x:row r="35" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A35" s="11" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B35" s="18" t="s">
+      <x:c r="B35" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C35" s="18" t="s">
+      <x:c r="C35" s="17" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D35" s="19" t="s">
+      <x:c r="D35" s="18" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A36" s="31" t="s">
+    <x:row r="36" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A36" s="11" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="B36" s="18" t="s">
+      <x:c r="B36" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C36" s="18" t="s">
+      <x:c r="C36" s="17" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="D36" s="19" t="s">
+      <x:c r="D36" s="18" t="s">
         <x:v>208</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A37" s="31" t="s">
+    <x:row r="37" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A37" s="11" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B37" s="18" t="s">
+      <x:c r="B37" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C37" s="18" t="s">
+      <x:c r="C37" s="17" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="D37" s="19" t="s">
+      <x:c r="D37" s="18" t="s">
         <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A38" s="31" t="s">
+    <x:row r="38" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A38" s="11" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B38" s="18" t="s">
+      <x:c r="B38" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C38" s="18" t="s">
+      <x:c r="C38" s="17" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="D38" s="19" t="s">
+      <x:c r="D38" s="18" t="s">
         <x:v>153</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A39" s="31" t="s">
+    <x:row r="39" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A39" s="11" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B39" s="18" t="s">
+      <x:c r="B39" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C39" s="18" t="s">
+      <x:c r="C39" s="17" t="s">
         <x:v>228</x:v>
       </x:c>
-      <x:c r="D39" s="19" t="s">
+      <x:c r="D39" s="18" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A40" s="31" t="s">
+    <x:row r="40" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A40" s="11" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="B40" s="18" t="s">
+      <x:c r="B40" s="17" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C40" s="18" t="s">
+      <x:c r="C40" s="17" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D40" s="19" t="s">
+      <x:c r="D40" s="18" t="s">
         <x:v>158</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A41" s="31" t="s">
+    <x:row r="41" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A41" s="11" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="B41" s="18" t="s">
+      <x:c r="B41" s="17" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C41" s="18" t="s">
+      <x:c r="C41" s="17" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D41" s="19" t="s">
+      <x:c r="D41" s="18" t="s">
         <x:v>206</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A42" s="31" t="s">
+    <x:row r="42" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A42" s="11" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="B42" s="18" t="s">
+      <x:c r="B42" s="17" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C42" s="18" t="s">
+      <x:c r="C42" s="17" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="D42" s="19" t="s">
+      <x:c r="D42" s="18" t="s">
         <x:v>145</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A43" s="31" t="s">
+    <x:row r="43" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A43" s="11" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="B43" s="18" t="s">
+      <x:c r="B43" s="17" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C43" s="18" t="s">
+      <x:c r="C43" s="17" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D43" s="12" t="s">
+      <x:c r="D43" s="22" t="s">
         <x:v>151</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A44" s="31" t="s">
+    <x:row r="44" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A44" s="11" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="B44" s="18" t="s">
+      <x:c r="B44" s="17" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C44" s="18" t="s">
+      <x:c r="C44" s="17" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="D44" s="19" t="s">
+      <x:c r="D44" s="18" t="s">
         <x:v>184</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A45" s="31" t="s">
+    <x:row r="45" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A45" s="11" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="B45" s="18" t="s">
+      <x:c r="B45" s="17" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C45" s="18" t="s">
+      <x:c r="C45" s="17" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D45" s="12" t="s">
+      <x:c r="D45" s="22" t="s">
         <x:v>155</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A46" s="31" t="s">
+    <x:row r="46" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A46" s="11" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="B46" s="18" t="s">
+      <x:c r="B46" s="17" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C46" s="18" t="s">
+      <x:c r="C46" s="17" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="D46" s="12" t="s">
+      <x:c r="D46" s="22" t="s">
         <x:v>154</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A47" s="31" t="s">
+    <x:row r="47" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A47" s="11" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B47" s="16" t="s">
+      <x:c r="B47" s="15" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C47" s="16" t="s">
+      <x:c r="C47" s="15" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="D47" s="17" t="s">
+      <x:c r="D47" s="16" t="s">
         <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A48" s="32" t="s">
+    <x:row r="48" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A48" s="23" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="B48" s="18" t="s">
+      <x:c r="B48" s="17" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="C48" s="23" t="s">
+      <x:c r="C48" s="24" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="D48" s="24" t="s">
+      <x:c r="D48" s="25" t="s">
         <x:v>146</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A49" s="32" t="s">
+    <x:row r="49" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A49" s="23" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="B49" s="18" t="s">
+      <x:c r="B49" s="17" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="C49" s="25" t="s">
+      <x:c r="C49" s="26" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="D49" s="26" t="s">
+      <x:c r="D49" s="27" t="s">
         <x:v>176</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A50" s="32" t="s">
+    <x:row r="50" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A50" s="23" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="B50" s="18" t="s">
+      <x:c r="B50" s="17" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="C50" s="25" t="s">
+      <x:c r="C50" s="26" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="D50" s="26" t="s">
+      <x:c r="D50" s="27" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A51" s="32" t="s">
+    <x:row r="51" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A51" s="23" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="B51" s="18" t="s">
+      <x:c r="B51" s="17" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="C51" s="25" t="s">
+      <x:c r="C51" s="26" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D51" s="24" t="s">
+      <x:c r="D51" s="25" t="s">
         <x:v>172</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A52" s="32" t="s">
+    <x:row r="52" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A52" s="23" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="B52" s="18" t="s">
+      <x:c r="B52" s="17" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="C52" s="25" t="s">
+      <x:c r="C52" s="26" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D52" s="27" t="s">
+      <x:c r="D52" s="28" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A53" s="32" t="s">
+    <x:row r="53" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A53" s="23" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="B53" s="18" t="s">
+      <x:c r="B53" s="17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C53" s="18" t="s">
+      <x:c r="C53" s="17" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D53" s="26" t="s">
+      <x:c r="D53" s="27" t="s">
         <x:v>241</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A54" s="32" t="s">
+    <x:row r="54" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A54" s="23" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B54" s="18" t="s">
+      <x:c r="B54" s="17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C54" s="18" t="s">
+      <x:c r="C54" s="17" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="D54" s="24" t="s">
+      <x:c r="D54" s="25" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A55" s="32" t="s">
+    <x:row r="55" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A55" s="23" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="B55" s="18" t="s">
+      <x:c r="B55" s="17" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C55" s="18" t="s">
+      <x:c r="C55" s="17" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="D55" s="24" t="s">
+      <x:c r="D55" s="25" t="s">
         <x:v>156</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A56" s="32" t="s">
+    <x:row r="56" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A56" s="23" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="B56" s="16" t="s">
+      <x:c r="B56" s="15" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C56" s="16" t="s">
+      <x:c r="C56" s="15" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="D56" s="28" t="s">
+      <x:c r="D56" s="29" t="s">
         <x:v>150</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A57" s="32" t="s">
+    <x:row r="57" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A57" s="23" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="B57" s="18" t="s">
+      <x:c r="B57" s="17" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C57" s="18" t="s">
+      <x:c r="C57" s="17" t="s">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="D57" s="24" t="s">
+      <x:c r="D57" s="25" t="s">
         <x:v>138</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A58" s="32" t="s">
+    <x:row r="58" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A58" s="23" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="B58" s="18" t="s">
+      <x:c r="B58" s="17" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C58" s="18" t="s">
+      <x:c r="C58" s="17" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="D58" s="24" t="s">
+      <x:c r="D58" s="25" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A59" s="32" t="s">
+    <x:row r="59" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A59" s="23" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="B59" s="18" t="s">
+      <x:c r="B59" s="17" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C59" s="18" t="s">
+      <x:c r="C59" s="17" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="D59" s="24" t="s">
+      <x:c r="D59" s="25" t="s">
         <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A60" s="32" t="s">
+    <x:row r="60" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A60" s="23" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B60" s="18" t="s">
+      <x:c r="B60" s="17" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C60" s="18" t="s">
+      <x:c r="C60" s="17" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="D60" s="24" t="s">
+      <x:c r="D60" s="25" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A61" s="32" t="s">
+    <x:row r="61" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A61" s="23" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="B61" s="18" t="s">
+      <x:c r="B61" s="17" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C61" s="18" t="s">
+      <x:c r="C61" s="17" t="s">
         <x:v>226</x:v>
       </x:c>
-      <x:c r="D61" s="24" t="s">
+      <x:c r="D61" s="25" t="s">
         <x:v>164</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A62" s="32" t="s">
+    <x:row r="62" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A62" s="23" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="B62" s="18" t="s">
+      <x:c r="B62" s="17" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C62" s="18" t="s">
+      <x:c r="C62" s="17" t="s">
         <x:v>237</x:v>
       </x:c>
-      <x:c r="D62" s="24" t="s">
+      <x:c r="D62" s="25" t="s">
         <x:v>159</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A63" s="32" t="s">
+    <x:row r="63" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A63" s="23" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="B63" s="18" t="s">
+      <x:c r="B63" s="17" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C63" s="18" t="s">
+      <x:c r="C63" s="17" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D63" s="26" t="s">
+      <x:c r="D63" s="27" t="s">
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A64" s="32" t="s">
+    <x:row r="64" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A64" s="23" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="B64" s="18" t="s">
+      <x:c r="B64" s="17" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C64" s="18" t="s">
+      <x:c r="C64" s="17" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="D64" s="26" t="s">
+      <x:c r="D64" s="27" t="s">
         <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A65" s="32" t="s">
+    <x:row r="65" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A65" s="23" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="B65" s="18" t="s">
+      <x:c r="B65" s="17" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C65" s="18" t="s">
+      <x:c r="C65" s="17" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D65" s="26" t="s">
+      <x:c r="D65" s="27" t="s">
         <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A66" s="32" t="s">
+      <x:c r="A66" s="23" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="B66" s="18" t="s">
+      <x:c r="B66" s="17" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C66" s="18" t="s">
+      <x:c r="C66" s="17" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="D66" s="26" t="s">
+      <x:c r="D66" s="27" t="s">
         <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A67" s="32" t="s">
+      <x:c r="A67" s="23" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="B67" s="18" t="s">
+      <x:c r="B67" s="17" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C67" s="18" t="s">
+      <x:c r="C67" s="17" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D67" s="26" t="s">
+      <x:c r="D67" s="27" t="s">
         <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A68" s="32" t="s">
+      <x:c r="A68" s="23" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B68" s="18" t="s">
+      <x:c r="B68" s="17" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C68" s="18" t="s">
+      <x:c r="C68" s="17" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D68" s="26" t="s">
+      <x:c r="D68" s="27" t="s">
         <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A69" s="32" t="s">
+      <x:c r="A69" s="23" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="B69" s="18" t="s">
+      <x:c r="B69" s="17" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C69" s="18" t="s">
+      <x:c r="C69" s="17" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="D69" s="26" t="s">
+      <x:c r="D69" s="27" t="s">
         <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A70" s="32" t="s">
+      <x:c r="A70" s="23" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="B70" s="18" t="s">
+      <x:c r="B70" s="17" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C70" s="18" t="s">
+      <x:c r="C70" s="17" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D70" s="26" t="s">
+      <x:c r="D70" s="27" t="s">
         <x:v>166</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A71" s="32" t="s">
+    <x:row r="71" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A71" s="23" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B71" s="18" t="s">
+      <x:c r="B71" s="17" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C71" s="18" t="s">
+      <x:c r="C71" s="17" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="D71" s="26" t="s">
+      <x:c r="D71" s="27" t="s">
         <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A72" s="32" t="s">
+    <x:row r="72" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A72" s="23" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="B72" s="23" t="s">
+      <x:c r="B72" s="24" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C72" s="23" t="s">
+      <x:c r="C72" s="24" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="D72" s="28" t="s">
+      <x:c r="D72" s="29" t="s">
         <x:v>238</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A73" s="32" t="s">
+    <x:row r="73" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A73" s="23" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="B73" s="13" t="s">
+      <x:c r="B73" s="30" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C73" s="13" t="s">
+      <x:c r="C73" s="30" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="D73" s="26" t="s">
+      <x:c r="D73" s="27" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A74" s="32" t="s">
+    <x:row r="74" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A74" s="23" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="B74" s="29" t="s">
+      <x:c r="B74" s="31" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C74" s="29" t="s">
+      <x:c r="C74" s="31" t="s">
         <x:v>230</x:v>
       </x:c>
-      <x:c r="D74" s="30" t="s">
+      <x:c r="D74" s="32" t="s">
         <x:v>152</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A75" s="32" t="s">
+    <x:row r="75" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A75" s="23" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="B75" s="29" t="s">
+      <x:c r="B75" s="31" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C75" s="29" t="s">
+      <x:c r="C75" s="31" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="D75" s="30" t="s">
+      <x:c r="D75" s="32" t="s">
         <x:v>147</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A76" s="32" t="s">
+    <x:row r="76" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A76" s="23" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="B76" s="29" t="s">
+      <x:c r="B76" s="31" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C76" s="29" t="s">
+      <x:c r="C76" s="31" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="D76" s="30" t="s">
+      <x:c r="D76" s="32" t="s">
         <x:v>162</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A77" s="32" t="s">
+    <x:row r="77" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A77" s="23" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="B77" s="29" t="s">
+      <x:c r="B77" s="31" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C77" s="29" t="s">
+      <x:c r="C77" s="31" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="D77" s="30" t="s">
+      <x:c r="D77" s="32" t="s">
         <x:v>188</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A78" s="32" t="s">
+    <x:row r="78" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A78" s="23" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B78" s="29" t="s">
+      <x:c r="B78" s="31" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C78" s="29" t="s">
+      <x:c r="C78" s="31" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D78" s="30" t="s">
+      <x:c r="D78" s="32" t="s">
         <x:v>167</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
-      <x:c r="A79" s="32" t="s">
+    <x:row r="79" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+      <x:c r="A79" s="23" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="B79" s="29" t="s">
+      <x:c r="B79" s="31" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C79" s="29" t="s">
+      <x:c r="C79" s="31" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="D79" s="30" t="s">
+      <x:c r="D79" s="32" t="s">
         <x:v>139</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:4" s="6" customFormat="1" ht="16.399999999999999">
-      <x:c r="A80" s="3"/>
-      <x:c r="B80" s="9"/>
-      <x:c r="C80" s="9"/>
-      <x:c r="D80" s="9"/>
-    </x:row>
-    <x:row r="81" spans="1:1" s="6" customFormat="1" customHeight="1">
-      <x:c r="A81" s="3"/>
-    </x:row>
-    <x:row r="82" spans="1:1" s="7" customFormat="1" ht="13.199999999999999">
-      <x:c r="A82" s="9"/>
-    </x:row>
-    <x:row r="83" spans="1:1" s="8" customFormat="1" ht="13.199999999999999">
-      <x:c r="A83" s="9"/>
-    </x:row>
-    <x:row r="84" s="8" customFormat="1" ht="13.199999999999999"/>
-    <x:row r="85" s="8" customFormat="1" ht="13.199999999999999"/>
-    <x:row r="86" s="8" customFormat="1" ht="13.199999999999999"/>
+    <x:row r="80" spans="1:4" s="4" customFormat="1" ht="17.800000000000001">
+      <x:c r="A80" s="33"/>
+      <x:c r="B80" s="34"/>
+      <x:c r="C80" s="34"/>
+      <x:c r="D80" s="34"/>
+    </x:row>
+    <x:row r="81" spans="1:1" s="4" customFormat="1" customHeight="1">
+      <x:c r="A81" s="33"/>
+    </x:row>
+    <x:row r="82" spans="1:1" s="7" customFormat="1" ht="17.800000000000001">
+      <x:c r="A82" s="34"/>
+    </x:row>
+    <x:row r="83" spans="1:1" s="8" customFormat="1" ht="17.800000000000001">
+      <x:c r="A83" s="34"/>
+    </x:row>
+    <x:row r="84" s="8" customFormat="1" ht="17.800000000000001"/>
+    <x:row r="85" s="8" customFormat="1" ht="17.800000000000001"/>
+    <x:row r="86" s="8" customFormat="1" ht="17.800000000000001"/>
     <x:row r="87" s="8" customFormat="1" customHeight="1"/>
-    <x:row r="88" s="6" customFormat="1" customHeight="1"/>
-    <x:row r="89" s="6" customFormat="1" customHeight="1"/>
-    <x:row r="90" s="6" customFormat="1" customHeight="1"/>
+    <x:row r="88" s="4" customFormat="1" customHeight="1"/>
+    <x:row r="89" s="4" customFormat="1" customHeight="1"/>
+    <x:row r="90" s="4" customFormat="1" customHeight="1"/>
   </x:sheetData>
   <x:mergeCells count="1">
     <x:mergeCell ref="A1:D1"/>
